--- a/biology/Virologie/Bromovirus/Bromovirus.xlsx
+++ b/biology/Virologie/Bromovirus/Bromovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bromovirus est un genre de virus de la famille des Bromoviridae qui comprend six espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin de polarité positive rattachés au groupe IV de la classification Baltimore.
-L'espèce type est le virus de la mosaïque du brome (BMV, brome mosaic virus)[2]. 
-L'autre espèce étudiée est le virus de la marbrure chlorotique du niébé (CCMV, cowpea chlorotic mottle virus) qui fut le premier virus icosaédrique reconstitué in vitro[3]. 
-Les hôtes naturels des virus de ce genre sont des plantes (phytovirus). Ils infectent à l'état naturel principalement des monocotylédones, notamment les Poaceae (graminées), et peuvent présenter un danger pour les productions agricoles[4].
+L'espèce type est le virus de la mosaïque du brome (BMV, brome mosaic virus). 
+L'autre espèce étudiée est le virus de la marbrure chlorotique du niébé (CCMV, cowpea chlorotic mottle virus) qui fut le premier virus icosaédrique reconstitué in vitro. 
+Les hôtes naturels des virus de ce genre sont des plantes (phytovirus). Ils infectent à l'état naturel principalement des monocotylédones, notamment les Poaceae (graminées), et peuvent présenter un danger pour les productions agricoles.
 Ils sont transmis par des insectes-vecteurs, coléoptères et pucerons.
 </t>
         </is>
@@ -515,10 +527,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bromovirus sont des virus à ARN monocaténaire. Le génome est tripartite, segmenté en trois molécules d'ARN génomique linéaire, ARN1, ARN2 et ARN3. L'ARN3 est partiellement transcrit en un ARN4 sous-génomique qui produit les protéines de capside). Tous les segments du génomes sont répartis dans des virions identiques[5].
-Chaque virion contient, en plus d'un segment de génome, un assemblage des 180 protéines identiques formant une capside icosaédrique de symétrie T=3 d'environ 26 nm de diamètre[6]. L'ARN génomique ne remplit pas complètement l'intérieur de la particule, laissant une cavité centrale d'environ 8 nm[5]. Ce sont des virions sans enveloppe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bromovirus sont des virus à ARN monocaténaire. Le génome est tripartite, segmenté en trois molécules d'ARN génomique linéaire, ARN1, ARN2 et ARN3. L'ARN3 est partiellement transcrit en un ARN4 sous-génomique qui produit les protéines de capside). Tous les segments du génomes sont répartis dans des virions identiques.
+Chaque virion contient, en plus d'un segment de génome, un assemblage des 180 protéines identiques formant une capside icosaédrique de symétrie T=3 d'environ 26 nm de diamètre. L'ARN génomique ne remplit pas complètement l'intérieur de la particule, laissant une cavité centrale d'environ 8 nm. Ce sont des virions sans enveloppe.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 janvier 2021)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 janvier 2021) :
 Broad bean mottle virus (BBMV)
 Brome mosaic virus (BMV)
 Cassia yellow blotch virus (CYBV)
